--- a/pruebas cdmcsoft.xlsx
+++ b/pruebas cdmcsoft.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hogar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprendiz\Documents\GitHub\CDMCSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Registrar Departamento" sheetId="2" r:id="rId2"/>
     <sheet name="Registrar Ciudad" sheetId="4" r:id="rId3"/>
     <sheet name="Registrar tipo plan" sheetId="5" r:id="rId4"/>
+    <sheet name="Gestionar causa" sheetId="6" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="119">
   <si>
     <t>Modulo</t>
   </si>
@@ -282,6 +284,108 @@
   </si>
   <si>
     <t>CP_5 Registrar Tipo Plan</t>
+  </si>
+  <si>
+    <t>CP_1 Registrar causa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Causa: me accidente </t>
+  </si>
+  <si>
+    <t>guarda causa correctamente</t>
+  </si>
+  <si>
+    <t>Guardar correctamente una causa</t>
+  </si>
+  <si>
+    <t>El sistema ingresa la causa correctamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Causa: </t>
+  </si>
+  <si>
+    <t>el sistema no guarda la causa al estar el campo vacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema no ingresa la causa correctamente, y saca un mensaje de alerta </t>
+  </si>
+  <si>
+    <t>CP_2 Registrar causa</t>
+  </si>
+  <si>
+    <t>guarda el egresado correctamente</t>
+  </si>
+  <si>
+    <t>El sistema ingresael egresado correctamente</t>
+  </si>
+  <si>
+    <t>Guardar correctamente el egresado</t>
+  </si>
+  <si>
+    <t>CP_1 Registrar egresado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo: 1023    etapa_practica: contrato   otra:     vinculacion:si    act_vinculado:no  nit:123123    cargo:portero    fecha:2016/09/02   trabaja_en_lo_que_estudio:si  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo:     etapa_practica:    otra:     vinculacion:    act_vinculado:  nit:    cargo:   fecha:   trabaja_en_lo_que_estudio:  </t>
+  </si>
+  <si>
+    <t>no guarda el egresado debido a que faltan campos por llenar</t>
+  </si>
+  <si>
+    <t>El sistema no registra el egresado porque faltan todos los campos por llegar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo: qweqwe etapa_practica: contrato   otra:     vinculacion:si    act_vinculado: si  nit: qweqwe    cargo: 12312    fecha:2016/09/02   trabaja_en_lo_que_estudio:si  </t>
+  </si>
+  <si>
+    <t>El sistema no registra el egresado y saca un mensaje avisando de los errores, ademas de no dejar escribir valores letricos en campos numericos y viceversa</t>
+  </si>
+  <si>
+    <t>CP_2 Registrar egresado</t>
+  </si>
+  <si>
+    <t>CP_3 Registrar egresado</t>
+  </si>
+  <si>
+    <t>CP_4 Registrar egresado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo: 1036  etapa_practica:    otra:     vinculacion:   act_vinculado:   nit: 123     cargo: aprendiz    fecha:    trabaja_en_lo_que_estudio: </t>
+  </si>
+  <si>
+    <t>no guarda en la base de datos debido a que faltan algunos campos por llenar o seleccionar</t>
+  </si>
+  <si>
+    <t>El sistema no registra el egresado y saca un mensaje avisando que faltan campos por llenar o seleccionar</t>
+  </si>
+  <si>
+    <t>CP_5 Registrar egresado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo: 1036  etapa_practica: contrato   otra:     vinculacion:si    act_vinculado: si  nit: 123    cargo: aprendiz    fecha:  trabaja_en_lo_que_estudio:si  </t>
+  </si>
+  <si>
+    <t>no guarda en la base de datos ya que faltan datos por ingresar en este caso la fecha</t>
+  </si>
+  <si>
+    <t>El sistema no registra el egresado y saca un mensaje avisando que falta algun campo por ingresar</t>
+  </si>
+  <si>
+    <t>CP_6 Registrar egresado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo: 1036 etapa_practica:    otra:     vinculacion: si   act_vinculado: si  nit: 123    cargo: aprendiz    fecha:2016/09/02   trabaja_en_lo_que_estudio:si  </t>
+  </si>
+  <si>
+    <t>no guarda en la base de datos ya que faltan campos por seleccionar</t>
+  </si>
+  <si>
+    <t>El sistema no registra el egresado y saca un mensaje avisando la falta de campor por llenar</t>
+  </si>
+  <si>
+    <t>no guarda en la base de datos ya que no permite escribir letras en campos numericos, no permite escribir numeros en campos de solo letras y tampoco digitar caracteres especiales</t>
   </si>
 </sst>
 </file>
@@ -363,6 +467,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,10 +480,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2705,6 +2809,896 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>789214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3007179" y="3918857"/>
+          <a:ext cx="6027963" cy="1223313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>176894</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>299358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>553434</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3116037" y="1143001"/>
+          <a:ext cx="5973535" cy="825576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>242456</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>606138</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>523602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13300365" y="865909"/>
+          <a:ext cx="7065818" cy="1077784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>155865</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>640772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>710047</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13213774" y="3775363"/>
+          <a:ext cx="7256318" cy="1384393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>885265</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1554057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4482352" y="100853"/>
+          <a:ext cx="2577354" cy="2853139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>858361</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>571501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3485030" y="3014383"/>
+          <a:ext cx="4802831" cy="2140324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358590</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>306562</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1538487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13458266" y="89646"/>
+          <a:ext cx="2655793" cy="2848776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>340180</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>179431</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>598713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12668251" y="3088822"/>
+          <a:ext cx="4737822" cy="2109105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>931133</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1605643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4150179" y="5633357"/>
+          <a:ext cx="2958597" cy="3224893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>244928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1129747</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>257298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3224893" y="9212035"/>
+          <a:ext cx="5334354" cy="2408465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>138547</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>51956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>432259</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1662546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13231092" y="5593774"/>
+          <a:ext cx="3001533" cy="3290454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>597476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13375821" y="9007929"/>
+          <a:ext cx="2770896" cy="2952749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1039141</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1741714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4245429" y="12192000"/>
+          <a:ext cx="3229891" cy="3510643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>802824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1139493</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3469821" y="16546288"/>
+          <a:ext cx="5357708" cy="2422070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>34638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>575411</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1731819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13594773" y="12157365"/>
+          <a:ext cx="3179323" cy="3498272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>517073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>713639</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12817929" y="16260537"/>
+          <a:ext cx="6306174" cy="2816678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2993,26 +3987,26 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -3021,14 +4015,14 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3037,14 +4031,14 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -3053,14 +4047,14 @@
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -3069,14 +4063,14 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="2:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -3085,14 +4079,14 @@
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -3101,26 +4095,26 @@
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -3129,14 +4123,14 @@
       <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -3145,14 +4139,14 @@
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="2:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -3161,14 +4155,14 @@
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -3177,14 +4171,14 @@
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="2:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -3193,14 +4187,14 @@
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="18" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -3209,26 +4203,26 @@
       <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
@@ -3237,14 +4231,14 @@
       <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
@@ -3253,14 +4247,14 @@
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
@@ -3269,14 +4263,14 @@
       <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -3285,14 +4279,14 @@
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -3301,14 +4295,14 @@
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="26" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
@@ -3317,26 +4311,26 @@
       <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
@@ -3345,14 +4339,14 @@
       <c r="C28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
@@ -3361,14 +4355,14 @@
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="2:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
@@ -3377,14 +4371,14 @@
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="2:7" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
@@ -3393,14 +4387,14 @@
       <c r="C31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -3409,17 +4403,25 @@
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G24"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="D2:D5"/>
@@ -3428,14 +4430,6 @@
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3473,46 +4467,46 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="2:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -3521,24 +4515,24 @@
       <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3547,24 +4541,24 @@
       <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="2:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -3573,24 +4567,24 @@
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="2:17" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -3599,24 +4593,24 @@
       <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="2:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -3625,24 +4619,24 @@
       <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="10" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -3651,46 +4645,46 @@
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="2:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -3699,24 +4693,24 @@
       <c r="C12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="2:17" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -3725,24 +4719,24 @@
       <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="2:17" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -3751,24 +4745,24 @@
       <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="2:17" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -3777,24 +4771,24 @@
       <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="2:17" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -3803,24 +4797,24 @@
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="18" spans="2:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -3829,22 +4823,22 @@
       <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
@@ -3853,11 +4847,11 @@
       <c r="C20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="2:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
@@ -3866,11 +4860,11 @@
       <c r="C21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
@@ -3879,11 +4873,11 @@
       <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -3892,11 +4886,11 @@
       <c r="C23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="2:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -3905,11 +4899,11 @@
       <c r="C24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3961,46 +4955,46 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="2:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -4009,24 +5003,24 @@
       <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -4035,24 +5029,24 @@
       <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="2:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -4061,24 +5055,24 @@
       <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="2:17" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -4087,24 +5081,24 @@
       <c r="C7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="2:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -4113,24 +5107,24 @@
       <c r="C8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="10" spans="2:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -4139,46 +5133,46 @@
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="2:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="2:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -4187,24 +5181,24 @@
       <c r="C12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="2:17" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -4213,24 +5207,24 @@
       <c r="C13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="2:17" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -4239,24 +5233,24 @@
       <c r="C14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="2:17" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -4265,24 +5259,24 @@
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="2:17" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -4291,87 +5285,87 @@
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="18" spans="2:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="2:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="2:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4393,8 +5387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4422,44 +5416,44 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="2:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="2:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -4468,23 +5462,23 @@
       <c r="C4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:16" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -4493,23 +5487,23 @@
       <c r="C5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:16" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -4518,23 +5512,23 @@
       <c r="C6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:16" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -4543,23 +5537,23 @@
       <c r="C7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="2:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -4568,23 +5562,23 @@
       <c r="C8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="10" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -4593,44 +5587,44 @@
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="2:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="2:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -4639,23 +5633,23 @@
       <c r="C12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
     </row>
     <row r="13" spans="2:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -4664,23 +5658,23 @@
       <c r="C13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="2:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -4689,23 +5683,23 @@
       <c r="C14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="2:16" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -4714,23 +5708,23 @@
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="2:16" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -4739,23 +5733,23 @@
       <c r="C16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
     </row>
     <row r="18" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -4764,22 +5758,22 @@
       <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
@@ -4788,11 +5782,11 @@
       <c r="C20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
@@ -4801,11 +5795,11 @@
       <c r="C21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
@@ -4814,11 +5808,11 @@
       <c r="C22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -4827,11 +5821,11 @@
       <c r="C23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="2:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -4840,11 +5834,11 @@
       <c r="C24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4862,4 +5856,829 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T8"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C8" sqref="A2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="L2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+    </row>
+    <row r="3" spans="2:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="L3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="2:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="2:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="2:20" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="2:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="L8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:J6"/>
+    <mergeCell ref="D7:J8"/>
+    <mergeCell ref="N2:T6"/>
+    <mergeCell ref="N7:T8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
+    <col min="12" max="12" width="32.140625" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="2:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="K3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="2:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="2:19" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="K5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="2:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="K6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="2:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="K7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="2:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="K8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="10" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="K11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="2:19" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="2:19" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="K13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="2:19" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="K14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="2:19" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="2:19" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="K16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="18" spans="2:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="2:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="K19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="2:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="2:19" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="2:19" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="K22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="2:19" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="2:19" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="K24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D18:I21"/>
+    <mergeCell ref="D22:I24"/>
+    <mergeCell ref="M18:S21"/>
+    <mergeCell ref="M22:S24"/>
+    <mergeCell ref="D2:I5"/>
+    <mergeCell ref="D6:I8"/>
+    <mergeCell ref="M2:S5"/>
+    <mergeCell ref="M6:S8"/>
+    <mergeCell ref="D14:I16"/>
+    <mergeCell ref="D10:I13"/>
+    <mergeCell ref="M10:S13"/>
+    <mergeCell ref="M14:S16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/pruebas cdmcsoft.xlsx
+++ b/pruebas cdmcsoft.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprendiz\Documents\GitHub\CDMCSoft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CDMCSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,9 @@
     <sheet name="Registrar Ciudad" sheetId="4" r:id="rId3"/>
     <sheet name="Registrar tipo plan" sheetId="5" r:id="rId4"/>
     <sheet name="Gestionar causa" sheetId="6" r:id="rId5"/>
-    <sheet name="Hoja2" sheetId="7" r:id="rId6"/>
+    <sheet name="Gestion Egresado" sheetId="7" r:id="rId6"/>
+    <sheet name="Gestion Horario" sheetId="8" r:id="rId7"/>
+    <sheet name="Gestion Centro" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="132">
   <si>
     <t>Modulo</t>
   </si>
@@ -386,6 +388,45 @@
   </si>
   <si>
     <t>no guarda en la base de datos ya que no permite escribir letras en campos numericos, no permite escribir numeros en campos de solo letras y tampoco digitar caracteres especiales</t>
+  </si>
+  <si>
+    <t>CP_1 Registrar horario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horario: 6-12  </t>
+  </si>
+  <si>
+    <t>guarda el horario correctamente</t>
+  </si>
+  <si>
+    <t>El sistema ingresa el horario correctamente</t>
+  </si>
+  <si>
+    <t>Guardar correctamente el horario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horario:  </t>
+  </si>
+  <si>
+    <t>no guarda el horario al estar el campo vacio</t>
+  </si>
+  <si>
+    <t>El sistema no ingresa el horario a la base de datos y saca una alerta diciendo que el campo esta vacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horario: ¿'¿''¿'asdasd  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el sistema no ingresa el horario por haber encontrado caracteres especiales o letras en el campo de texto </t>
+  </si>
+  <si>
+    <t>el sistema no debe de dejar ingresar letras ni caracteres especiales en los input, debe notificar de ello</t>
+  </si>
+  <si>
+    <t>CP_1 Registrar centro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo: 1       Regional: antioquia  Nombre: cdmc  subdirec: cesar    complejo: sur </t>
   </si>
 </sst>
 </file>
@@ -401,12 +442,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD2727"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -456,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -480,12 +527,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFD2727"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3699,6 +3757,566 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>280147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>187698</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>840441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3664323" y="649941"/>
+          <a:ext cx="3549463" cy="1602441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56031</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>694765</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1034046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3272119" y="4056531"/>
+          <a:ext cx="4448734" cy="1011633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>537482</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>620485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13253357" y="449035"/>
+          <a:ext cx="3463018" cy="1559379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>748393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1053815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12423321" y="3918857"/>
+          <a:ext cx="5184322" cy="1149065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>353785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>351064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3646715" y="6531428"/>
+          <a:ext cx="3156857" cy="1426029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>54430</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>421822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>708968</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3279323" y="8831036"/>
+          <a:ext cx="4464538" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3429000" y="123825"/>
+          <a:ext cx="3476625" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>632454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2466976" y="2581275"/>
+          <a:ext cx="5372100" cy="1270629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>716616</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>901513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12718677" y="168088"/>
+          <a:ext cx="3462057" cy="2044513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>437030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>703729</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>705576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11743764" y="2711824"/>
+          <a:ext cx="5186083" cy="1209840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -3964,8 +4582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="B2:C8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4312,10 +4930,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="6"/>
@@ -4414,6 +5032,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D16"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="D26:D29"/>
     <mergeCell ref="G26:G29"/>
@@ -4422,14 +5048,6 @@
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="G18:G21"/>
     <mergeCell ref="G22:G24"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4441,8 +5059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="C18" sqref="B18:C24"/>
+    <sheetView topLeftCell="A16" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="C18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4472,10 +5090,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="6"/>
@@ -4817,10 +5435,10 @@
       <c r="Q16" s="8"/>
     </row>
     <row r="18" spans="2:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="6"/>
@@ -4927,8 +5545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A4" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="C10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5127,10 +5745,10 @@
       <c r="Q8" s="8"/>
     </row>
     <row r="10" spans="2:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="6"/>
@@ -5387,8 +6005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C8"/>
+    <sheetView topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5581,10 +6199,10 @@
       <c r="P8" s="8"/>
     </row>
     <row r="10" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="6"/>
@@ -5592,10 +6210,10 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="9" t="s">
         <v>1</v>
       </c>
       <c r="K10" s="6"/>
@@ -5752,10 +6370,10 @@
       <c r="P16" s="8"/>
     </row>
     <row r="18" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="6"/>
@@ -5863,7 +6481,7 @@
   <dimension ref="B1:T8"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C8" sqref="A2:C8"/>
+      <selection activeCell="D7" sqref="D7:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6089,8 +6707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6681,4 +7299,542 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S16"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="2:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="K3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="2:19" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="K5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="2:19" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="K6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="2:19" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="K7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="2:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="K8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="10" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:19" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="2:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="2:19" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:19" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:I5"/>
+    <mergeCell ref="D6:I8"/>
+    <mergeCell ref="M2:S5"/>
+    <mergeCell ref="M6:S8"/>
+    <mergeCell ref="D10:I13"/>
+    <mergeCell ref="D14:I16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="0.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="2" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="2:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="2:18" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="J5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="2:18" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="J6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="2:18" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="J7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="2:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:H5"/>
+    <mergeCell ref="D6:H8"/>
+    <mergeCell ref="L2:R5"/>
+    <mergeCell ref="L6:R8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/pruebas cdmcsoft.xlsx
+++ b/pruebas cdmcsoft.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CDMCSoft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprendiz\Documents\GitHub\CDMCSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Gestion Egresado" sheetId="7" r:id="rId6"/>
     <sheet name="Gestion Horario" sheetId="8" r:id="rId7"/>
     <sheet name="Gestion Centro" sheetId="9" r:id="rId8"/>
+    <sheet name="Gestion convencion" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="154">
   <si>
     <t>Modulo</t>
   </si>
@@ -427,6 +428,72 @@
   </si>
   <si>
     <t xml:space="preserve">codigo: 1       Regional: antioquia  Nombre: cdmc  subdirec: cesar    complejo: sur </t>
+  </si>
+  <si>
+    <t>CP_3 Registrar centro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo: df231      Regional: antioquia  Nombre: cuero  subdirec: no se    complejo: sur </t>
+  </si>
+  <si>
+    <t>no permite ingresar codigo de centro al tener letras</t>
+  </si>
+  <si>
+    <t>El sistema no debe dejar ingresar letras en campos numericos y debe sacar un mensaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo: 123     Regional: antioquia  Nombre: 435fg  subdirec: no se    complejo: sur </t>
+  </si>
+  <si>
+    <t>no permite ingresar el centro al tener numeros en el nombre</t>
+  </si>
+  <si>
+    <t>El sistema no debe dejar ingresar numeros en campos letricos y debe sacar un mensaje</t>
+  </si>
+  <si>
+    <t>El sistema no ingresa el horario y saca una alerta diciendo que faltan campos</t>
+  </si>
+  <si>
+    <t>no guarda el horario al haber campos vacios</t>
+  </si>
+  <si>
+    <t>CP_4 Registrar centro</t>
+  </si>
+  <si>
+    <t>codigo: 123**     Regional: antioquia  Nombre: 435fg**  subdirec: no se  **  complejo: sur **</t>
+  </si>
+  <si>
+    <t>no permite ingresar caracteres especiales en ninguno de los campos</t>
+  </si>
+  <si>
+    <t>El sistema no debe dejar ingresar caracteres especiales en ninguno de los campos</t>
+  </si>
+  <si>
+    <t>CP_2 Registrar centro</t>
+  </si>
+  <si>
+    <t>CP_5 Registrar centro</t>
+  </si>
+  <si>
+    <t>CP_6 Registrar centro</t>
+  </si>
+  <si>
+    <t>CP_1 Registrar convencion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre: historietas </t>
+  </si>
+  <si>
+    <t>guarda la convencion</t>
+  </si>
+  <si>
+    <t>El sistema ingresa la convencion correctamente</t>
+  </si>
+  <si>
+    <t>Guardar correctamente la convencion</t>
+  </si>
+  <si>
+    <t>CP_2 Registrar convencion</t>
   </si>
 </sst>
 </file>
@@ -518,6 +585,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,9 +596,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4103,7 +4170,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
+      <xdr:colOff>619127</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>857250</xdr:rowOff>
     </xdr:to>
@@ -4296,6 +4363,616 @@
         <a:xfrm>
           <a:off x="11743764" y="2711824"/>
           <a:ext cx="5186083" cy="1209840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>811259</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1170214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2979964" y="5388428"/>
+          <a:ext cx="4076973" cy="2367643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>789214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1424986</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2490107" y="8708571"/>
+          <a:ext cx="5180557" cy="1319893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1208700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11552464" y="5320392"/>
+          <a:ext cx="4259036" cy="2474165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>94284</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>748394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>683078</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>244930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11075248" y="8667751"/>
+          <a:ext cx="5160794" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>367392</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1300325</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1074965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3020785" y="11266714"/>
+          <a:ext cx="4783754" cy="2707822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1414716</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2735036" y="15076714"/>
+          <a:ext cx="5183894" cy="1306286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>625927</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>353786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257894</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>993322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11865427" y="11416393"/>
+          <a:ext cx="4203967" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60789</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>476251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>699407</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11300289" y="14600465"/>
+          <a:ext cx="5210618" cy="1279071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3000375" y="809625"/>
+          <a:ext cx="3457575" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>663608</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2533650" y="2819400"/>
+          <a:ext cx="4368833" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>347382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>483080</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10791265" y="593911"/>
+          <a:ext cx="4012933" cy="739589"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4605,26 +5282,26 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -4633,14 +5310,14 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -4649,14 +5326,14 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -4665,14 +5342,14 @@
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -4681,14 +5358,14 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -4697,14 +5374,14 @@
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -4713,26 +5390,26 @@
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -4741,14 +5418,14 @@
       <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -4757,14 +5434,14 @@
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -4773,14 +5450,14 @@
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -4789,14 +5466,14 @@
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -4805,14 +5482,14 @@
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="18" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -4821,26 +5498,26 @@
       <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
@@ -4849,14 +5526,14 @@
       <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
@@ -4865,14 +5542,14 @@
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
@@ -4881,14 +5558,14 @@
       <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -4897,14 +5574,14 @@
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -4913,14 +5590,14 @@
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="26" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
@@ -4929,26 +5606,26 @@
       <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="6"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
@@ -4957,14 +5634,14 @@
       <c r="C28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="6"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
@@ -4973,14 +5650,14 @@
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
@@ -4989,14 +5666,14 @@
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="6"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="2:7" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
@@ -5005,14 +5682,14 @@
       <c r="C31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -5021,17 +5698,25 @@
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="6"/>
+      <c r="G32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G24"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="D2:D5"/>
@@ -5040,14 +5725,6 @@
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5085,46 +5762,46 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="2:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -5133,24 +5810,24 @@
       <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -5159,24 +5836,24 @@
       <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="2:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -5185,24 +5862,24 @@
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="2:17" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -5211,24 +5888,24 @@
       <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="2:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -5237,24 +5914,24 @@
       <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="10" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -5263,46 +5940,46 @@
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="2:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -5311,24 +5988,24 @@
       <c r="C12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="2:17" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -5337,24 +6014,24 @@
       <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="2:17" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -5363,24 +6040,24 @@
       <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:17" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -5389,24 +6066,24 @@
       <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="2:17" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -5415,48 +6092,48 @@
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="18" spans="2:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
@@ -5465,11 +6142,11 @@
       <c r="C20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
@@ -5478,11 +6155,11 @@
       <c r="C21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
@@ -5491,11 +6168,11 @@
       <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -5504,11 +6181,11 @@
       <c r="C23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="2:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -5517,11 +6194,11 @@
       <c r="C24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5573,46 +6250,46 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="2:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -5621,24 +6298,24 @@
       <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -5647,24 +6324,24 @@
       <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="2:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -5673,24 +6350,24 @@
       <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="2:17" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -5699,24 +6376,24 @@
       <c r="C7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="2:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -5725,72 +6402,72 @@
       <c r="C8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="10" spans="2:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="2:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="2:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -5799,24 +6476,24 @@
       <c r="C12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="2:17" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -5825,24 +6502,24 @@
       <c r="C13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="2:17" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -5851,24 +6528,24 @@
       <c r="C14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:17" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -5877,24 +6554,24 @@
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="2:17" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -5903,24 +6580,24 @@
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="18" spans="2:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
@@ -6034,44 +6711,44 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="2:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="2:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -6080,23 +6757,23 @@
       <c r="C4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" spans="2:16" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -6105,23 +6782,23 @@
       <c r="C5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="2:16" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -6130,23 +6807,23 @@
       <c r="C6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="2:16" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -6155,23 +6832,23 @@
       <c r="C7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="2:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -6180,69 +6857,69 @@
       <c r="C8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="10" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="2:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="2:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -6251,23 +6928,23 @@
       <c r="C12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="2:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -6276,23 +6953,23 @@
       <c r="C13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
     </row>
     <row r="14" spans="2:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -6301,23 +6978,23 @@
       <c r="C14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" spans="2:16" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -6326,23 +7003,23 @@
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" spans="2:16" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -6351,47 +7028,47 @@
       <c r="C16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
     </row>
     <row r="18" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
@@ -6400,11 +7077,11 @@
       <c r="C20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
@@ -6413,11 +7090,11 @@
       <c r="C21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="2:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
@@ -6426,11 +7103,11 @@
       <c r="C22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -6439,11 +7116,11 @@
       <c r="C23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="2:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -6452,11 +7129,11 @@
       <c r="C24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6506,50 +7183,50 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
       <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
     </row>
     <row r="3" spans="2:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
       <c r="L3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
     </row>
     <row r="4" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -6558,26 +7235,26 @@
       <c r="C4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
       <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
     </row>
     <row r="5" spans="2:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -6586,26 +7263,26 @@
       <c r="C5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
       <c r="L5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
     </row>
     <row r="6" spans="2:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -6614,26 +7291,26 @@
       <c r="C6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
       <c r="L6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
     </row>
     <row r="7" spans="2:20" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -6642,26 +7319,26 @@
       <c r="C7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
       <c r="L7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" spans="2:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -6670,26 +7347,26 @@
       <c r="C8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
       <c r="L8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6733,48 +7410,48 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="2:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="K3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="3"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="2:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -6783,25 +7460,25 @@
       <c r="C4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="K4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
     </row>
     <row r="5" spans="2:19" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -6810,25 +7487,25 @@
       <c r="C5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="K5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" spans="2:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -6837,25 +7514,25 @@
       <c r="C6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="K6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="2:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -6864,25 +7541,25 @@
       <c r="C7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="K7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="2:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -6891,25 +7568,25 @@
       <c r="C8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="K8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="10" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -6918,48 +7595,48 @@
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="K10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="K11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="2:19" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -6968,25 +7645,25 @@
       <c r="C12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="K12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="2:19" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -6995,25 +7672,25 @@
       <c r="C13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
       <c r="K13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
     </row>
     <row r="14" spans="2:19" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -7022,25 +7699,25 @@
       <c r="C14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
       <c r="K14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
     </row>
     <row r="15" spans="2:19" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -7049,25 +7726,25 @@
       <c r="C15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
     </row>
     <row r="16" spans="2:19" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -7076,25 +7753,25 @@
       <c r="C16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="K16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
     </row>
     <row r="18" spans="2:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -7103,48 +7780,48 @@
       <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="K18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
     </row>
     <row r="19" spans="2:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
       <c r="K19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
     </row>
     <row r="20" spans="2:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
@@ -7153,25 +7830,25 @@
       <c r="C20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
       <c r="K20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
     </row>
     <row r="21" spans="2:19" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
@@ -7180,25 +7857,25 @@
       <c r="C21" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
     </row>
     <row r="22" spans="2:19" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
@@ -7207,25 +7884,25 @@
       <c r="C22" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
       <c r="K22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
     </row>
     <row r="23" spans="2:19" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -7234,25 +7911,25 @@
       <c r="C23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
       <c r="K23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -7261,25 +7938,25 @@
       <c r="C24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
       <c r="K24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7326,48 +8003,48 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="2:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="K3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="3"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -7376,25 +8053,25 @@
       <c r="C4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="K4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
     </row>
     <row r="5" spans="2:19" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -7403,25 +8080,25 @@
       <c r="C5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="K5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" spans="2:19" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -7430,25 +8107,25 @@
       <c r="C6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="K6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="2:19" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -7457,25 +8134,25 @@
       <c r="C7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="K7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="2:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -7484,25 +8161,25 @@
       <c r="C8" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="K8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="10" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -7511,12 +8188,12 @@
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
@@ -7525,12 +8202,12 @@
         <v>2</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
@@ -7541,12 +8218,12 @@
       <c r="C12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
@@ -7557,12 +8234,12 @@
       <c r="C13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -7573,12 +8250,12 @@
       <c r="C14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -7589,12 +8266,12 @@
       <c r="C15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -7605,23 +8282,23 @@
       <c r="C16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D14:I16"/>
     <mergeCell ref="D2:I5"/>
     <mergeCell ref="D6:I8"/>
     <mergeCell ref="M2:S5"/>
     <mergeCell ref="M6:S8"/>
     <mergeCell ref="D10:I13"/>
-    <mergeCell ref="D14:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7630,17 +8307,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R8"/>
+  <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" customWidth="1"/>
     <col min="9" max="9" width="2" customWidth="1"/>
@@ -7656,18 +8333,18 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
       <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -7680,16 +8357,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="6"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -7704,18 +8381,18 @@
       <c r="C4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L4" s="6"/>
+        <v>145</v>
+      </c>
+      <c r="L4" s="7"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -7723,25 +8400,25 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="2:18" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="J5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -7756,50 +8433,50 @@
       <c r="C6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
       <c r="J6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="2:18" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="2:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="J7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="2:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -7808,31 +8485,603 @@
       <c r="C8" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
       <c r="J8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="10" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="2:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="J11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="J12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="2:18" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="J13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="2:18" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="J14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="2:18" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="2:18" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="J16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="18" spans="2:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="J18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="2:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="J19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="2:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="J20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="2:18" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="2:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="2:18" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="2:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="J24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="D14:H16"/>
+    <mergeCell ref="L10:R13"/>
+    <mergeCell ref="L14:R16"/>
+    <mergeCell ref="D18:H21"/>
+    <mergeCell ref="D22:H24"/>
+    <mergeCell ref="L18:R21"/>
+    <mergeCell ref="L22:R24"/>
     <mergeCell ref="D2:H5"/>
     <mergeCell ref="D6:H8"/>
     <mergeCell ref="L2:R5"/>
     <mergeCell ref="L6:R8"/>
+    <mergeCell ref="D10:H13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="K2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="2:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="K3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="2:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="2:18" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="K5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="2:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="K6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="2:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="K7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="2:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="K8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:I5"/>
+    <mergeCell ref="D6:I8"/>
+    <mergeCell ref="M2:R5"/>
+    <mergeCell ref="M6:R8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
